--- a/srcript/reg_tab/csr_excel/register/asic/ing_vlan_processor_csr.xlsx
+++ b/srcript/reg_tab/csr_excel/register/asic/ing_vlan_processor_csr.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目文档\ES90\SVN\es90_svn\trunk\design_doc\module_design\CSR\csr_excel\register\asic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E81B4EFB-93A4-43B7-B2C6-E081714D749D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="ing_vlan_processor" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -499,11 +493,6 @@
     <t>IVLAN_DUBUG_FIFO</t>
   </si>
   <si>
-    <t>P0_ING_VLAN_ADDR_PREFIX,
-P1_ING_VLAN_ADDR_PREFIX</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>csr_unkown_vlan_tocpu</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -757,17 +746,21 @@
   </si>
   <si>
     <t>19'h0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0_ING_VLAN_ADDR_PREFIX</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,6 +1019,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,28 +1040,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1075,7 +1068,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1117,7 +1110,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1149,27 +1142,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1201,24 +1176,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1394,17 +1351,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A2:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="25.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="32" style="4" customWidth="1"/>
@@ -1417,18 +1374,18 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1454,76 +1411,76 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
-        <v>137</v>
+    <row r="4" spans="1:8" s="2" customFormat="1">
+      <c r="A4" s="41" t="s">
+        <v>136</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="41" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="40.5">
+      <c r="A5" s="43"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="49"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
+    <row r="6" spans="1:8" s="2" customFormat="1">
+      <c r="A6" s="42"/>
       <c r="B6" s="31"/>
-      <c r="C6" s="50"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:8" s="2" customFormat="1">
+      <c r="A7" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1535,17 +1492,17 @@
       <c r="F7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="41" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49"/>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A8" s="43"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="49"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1555,15 +1512,15 @@
       <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49"/>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A9" s="43"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
@@ -1573,17 +1530,17 @@
       <c r="F9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="49"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49"/>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A10" s="43"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="49"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>28</v>
@@ -1591,17 +1548,17 @@
       <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="49"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49"/>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A11" s="43"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="49"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>30</v>
@@ -1609,17 +1566,17 @@
       <c r="F11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="49"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A12" s="43"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="49"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1627,19 +1584,19 @@
       <c r="F12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="49"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:8" s="2" customFormat="1">
+      <c r="A13" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1651,19 +1608,19 @@
       <c r="F13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="41" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A14" s="43"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="49"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>23</v>
@@ -1671,17 +1628,17 @@
       <c r="F14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="49"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49"/>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A15" s="43"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="49"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -1689,15 +1646,15 @@
       <c r="F15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="49"/>
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A16" s="43"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="49"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="7" t="s">
         <v>38</v>
       </c>
@@ -1707,15 +1664,15 @@
       <c r="F16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="49"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49"/>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A17" s="43"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="49"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="7" t="s">
         <v>40</v>
       </c>
@@ -1725,15 +1682,15 @@
       <c r="F17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="49"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A18" s="43"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="49"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
@@ -1743,19 +1700,19 @@
       <c r="F18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="49"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:8" s="2" customFormat="1">
+      <c r="A19" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="41" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1767,17 +1724,17 @@
       <c r="F19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="41" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49"/>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A20" s="43"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="49"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="7" t="s">
         <v>47</v>
       </c>
@@ -1787,15 +1744,15 @@
       <c r="F20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="49"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49"/>
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A21" s="43"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="49"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="7" t="s">
         <v>49</v>
       </c>
@@ -1805,15 +1762,15 @@
       <c r="F21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="49"/>
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A22" s="43"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="49"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="7" t="s">
         <v>51</v>
       </c>
@@ -1823,15 +1780,15 @@
       <c r="F22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="49"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="49"/>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A23" s="43"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="49"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="7" t="s">
         <v>53</v>
       </c>
@@ -1841,15 +1798,15 @@
       <c r="F23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="49"/>
+      <c r="G23" s="43"/>
       <c r="H23" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="49"/>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A24" s="43"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="49"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="7" t="s">
         <v>55</v>
       </c>
@@ -1859,19 +1816,19 @@
       <c r="F24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="49"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:8" s="2" customFormat="1">
+      <c r="A25" s="41" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="41" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1883,17 +1840,17 @@
       <c r="F25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="41" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="49"/>
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A26" s="43"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="49"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="7" t="s">
         <v>62</v>
       </c>
@@ -1903,15 +1860,15 @@
       <c r="F26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="49"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="49"/>
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A27" s="43"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="49"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="7" t="s">
         <v>65</v>
       </c>
@@ -1921,15 +1878,15 @@
       <c r="F27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="49"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="49"/>
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A28" s="43"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="49"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="7" t="s">
         <v>68</v>
       </c>
@@ -1939,15 +1896,15 @@
       <c r="F28" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="49"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="49"/>
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A29" s="43"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="49"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="7" t="s">
         <v>69</v>
       </c>
@@ -1957,15 +1914,15 @@
       <c r="F29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="49"/>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A30" s="43"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="49"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="7" t="s">
         <v>70</v>
       </c>
@@ -1975,15 +1932,15 @@
       <c r="F30" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="43"/>
       <c r="H30" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="49"/>
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A31" s="43"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="49"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="7" t="s">
         <v>71</v>
       </c>
@@ -1993,15 +1950,15 @@
       <c r="F31" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="49"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="49"/>
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A32" s="43"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="49"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="7" t="s">
         <v>72</v>
       </c>
@@ -2011,19 +1968,19 @@
       <c r="F32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="48" t="s">
+    <row r="33" spans="1:8" s="2" customFormat="1">
+      <c r="A33" s="41" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -2035,17 +1992,17 @@
       <c r="F33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="48" t="s">
+      <c r="G33" s="41" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="49"/>
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A34" s="43"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="49"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="7" t="s">
         <v>76</v>
       </c>
@@ -2055,15 +2012,15 @@
       <c r="F34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="49"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="49"/>
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A35" s="43"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="49"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="7" t="s">
         <v>78</v>
       </c>
@@ -2073,15 +2030,15 @@
       <c r="F35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="49"/>
+      <c r="G35" s="43"/>
       <c r="H35" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="49"/>
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A36" s="43"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="49"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="7" t="s">
         <v>80</v>
       </c>
@@ -2091,15 +2048,15 @@
       <c r="F36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="49"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="49"/>
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A37" s="43"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="49"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="7" t="s">
         <v>81</v>
       </c>
@@ -2109,15 +2066,15 @@
       <c r="F37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="49"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="49"/>
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A38" s="43"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="49"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="7" t="s">
         <v>82</v>
       </c>
@@ -2127,15 +2084,15 @@
       <c r="F38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="49"/>
+      <c r="G38" s="43"/>
       <c r="H38" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="49"/>
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A39" s="43"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="49"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="7" t="s">
         <v>83</v>
       </c>
@@ -2145,15 +2102,15 @@
       <c r="F39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="49"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="49"/>
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A40" s="43"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="49"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="7" t="s">
         <v>84</v>
       </c>
@@ -2163,19 +2120,19 @@
       <c r="F40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="49"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="48" t="s">
+    <row r="41" spans="1:8" s="2" customFormat="1">
+      <c r="A41" s="41" t="s">
         <v>85</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="41" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -2187,17 +2144,17 @@
       <c r="F41" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="48" t="s">
+      <c r="G41" s="41" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="49"/>
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A42" s="43"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="49"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="7" t="s">
         <v>88</v>
       </c>
@@ -2207,15 +2164,15 @@
       <c r="F42" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="49"/>
+      <c r="G42" s="43"/>
       <c r="H42" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="49"/>
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A43" s="43"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="49"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="7" t="s">
         <v>90</v>
       </c>
@@ -2225,15 +2182,15 @@
       <c r="F43" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="49"/>
+      <c r="G43" s="43"/>
       <c r="H43" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="49"/>
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A44" s="43"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="49"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="7" t="s">
         <v>92</v>
       </c>
@@ -2243,15 +2200,15 @@
       <c r="F44" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="49"/>
+      <c r="G44" s="43"/>
       <c r="H44" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="49"/>
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A45" s="43"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="49"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="7" t="s">
         <v>93</v>
       </c>
@@ -2261,15 +2218,15 @@
       <c r="F45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="49"/>
+      <c r="G45" s="43"/>
       <c r="H45" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="49"/>
+    <row r="46" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A46" s="43"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="49"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="7" t="s">
         <v>94</v>
       </c>
@@ -2279,15 +2236,15 @@
       <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="49"/>
+      <c r="G46" s="43"/>
       <c r="H46" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="49"/>
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A47" s="43"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="49"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="7" t="s">
         <v>95</v>
       </c>
@@ -2297,15 +2254,15 @@
       <c r="F47" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="49"/>
+      <c r="G47" s="43"/>
       <c r="H47" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="49"/>
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A48" s="43"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="49"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="7" t="s">
         <v>96</v>
       </c>
@@ -2315,19 +2272,19 @@
       <c r="F48" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="49"/>
+      <c r="G48" s="43"/>
       <c r="H48" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:8" s="3" customFormat="1">
+      <c r="A49" s="44" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="44" t="s">
         <v>99</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -2339,17 +2296,17 @@
       <c r="F49" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="41" t="s">
+      <c r="G49" s="44" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="42"/>
+    <row r="50" spans="1:8" s="3" customFormat="1" outlineLevel="1">
+      <c r="A50" s="45"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="42"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="13" t="s">
         <v>100</v>
       </c>
@@ -2359,15 +2316,15 @@
       <c r="F50" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="42"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
+    <row r="51" spans="1:8" s="3" customFormat="1" outlineLevel="1">
+      <c r="A51" s="46"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="43"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="13" t="s">
         <v>11</v>
       </c>
@@ -2377,95 +2334,95 @@
       <c r="F51" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G51" s="43"/>
+      <c r="G51" s="46"/>
       <c r="H51" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="45" t="s">
+    <row r="52" spans="1:8" ht="409.5">
+      <c r="A52" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="44" t="s">
         <v>106</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="F52" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="G52" s="44" t="s">
+      <c r="G52" s="47" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="47"/>
+    <row r="53" spans="1:8">
+      <c r="A53" s="48"/>
       <c r="B53" s="40"/>
-      <c r="C53" s="42"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="47"/>
+      <c r="H53" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="48"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E54" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="47"/>
+      <c r="H54" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" outlineLevel="1">
+      <c r="A55" s="48"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="F53" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="44"/>
-      <c r="H53" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="47"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="44"/>
-      <c r="H54" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="47"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="E55" s="37" t="s">
+      <c r="F55" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="F55" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="G55" s="44"/>
+      <c r="G55" s="47"/>
       <c r="H55" s="26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="47"/>
+    <row r="56" spans="1:8" outlineLevel="1">
+      <c r="A56" s="48"/>
       <c r="B56" s="22"/>
-      <c r="C56" s="47"/>
+      <c r="C56" s="48"/>
       <c r="D56" s="23" t="s">
         <v>108</v>
       </c>
@@ -2475,15 +2432,15 @@
       <c r="F56" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="44"/>
+      <c r="G56" s="47"/>
       <c r="H56" s="26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="47"/>
+    <row r="57" spans="1:8" outlineLevel="1">
+      <c r="A57" s="48"/>
       <c r="B57" s="22"/>
-      <c r="C57" s="47"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="7" t="s">
         <v>11</v>
       </c>
@@ -2493,15 +2450,15 @@
       <c r="F57" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="44"/>
+      <c r="G57" s="47"/>
       <c r="H57" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="46"/>
+    <row r="58" spans="1:8" outlineLevel="1">
+      <c r="A58" s="49"/>
       <c r="B58" s="22"/>
-      <c r="C58" s="46"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="7" t="s">
         <v>11</v>
       </c>
@@ -2511,19 +2468,19 @@
       <c r="F58" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="44"/>
+      <c r="G58" s="47"/>
       <c r="H58" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="45" t="s">
-        <v>144</v>
+    <row r="59" spans="1:8">
+      <c r="A59" s="50" t="s">
+        <v>143</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="44" t="s">
         <v>113</v>
       </c>
       <c r="D59" s="19" t="s">
@@ -2542,10 +2499,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="A60" s="47"/>
+    <row r="60" spans="1:8" ht="54">
+      <c r="A60" s="48"/>
       <c r="B60" s="18"/>
-      <c r="C60" s="42"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="19" t="s">
         <v>116</v>
       </c>
@@ -2560,10 +2517,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="47"/>
+    <row r="61" spans="1:8" ht="40.5" outlineLevel="1">
+      <c r="A61" s="48"/>
       <c r="B61" s="22"/>
-      <c r="C61" s="47"/>
+      <c r="C61" s="48"/>
       <c r="D61" s="28" t="s">
         <v>118</v>
       </c>
@@ -2578,36 +2535,36 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="41" t="s">
-        <v>151</v>
+    <row r="62" spans="1:8" s="3" customFormat="1">
+      <c r="A62" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>150</v>
+        <v>154</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>149</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F62" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G62" s="41" t="s">
+      <c r="G62" s="44" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="42"/>
+    <row r="63" spans="1:8" s="3" customFormat="1" outlineLevel="1">
+      <c r="A63" s="45"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="42"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="13" t="s">
         <v>11</v>
       </c>
@@ -2617,59 +2574,59 @@
       <c r="F63" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="42"/>
+      <c r="G63" s="45"/>
       <c r="H63" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="43"/>
+    <row r="64" spans="1:8" s="3" customFormat="1" ht="40.5" outlineLevel="1">
+      <c r="A64" s="46"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="43"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="46"/>
+      <c r="H64" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E64" s="7" t="s">
+    </row>
+    <row r="65" spans="1:8" s="3" customFormat="1">
+      <c r="A65" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F64" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="43"/>
-      <c r="H64" s="36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="7" t="s">
+      <c r="F65" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F65" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G65" s="41" t="s">
+      <c r="G65" s="44" t="s">
         <v>21</v>
       </c>
       <c r="H65" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="42"/>
+    <row r="66" spans="1:8" s="3" customFormat="1" outlineLevel="1">
+      <c r="A66" s="45"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="42"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="13" t="s">
         <v>11</v>
       </c>
@@ -2679,59 +2636,59 @@
       <c r="F66" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="42"/>
+      <c r="G66" s="45"/>
       <c r="H66" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="3" customFormat="1" ht="54" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43"/>
+    <row r="67" spans="1:8" s="3" customFormat="1" ht="54" outlineLevel="1">
+      <c r="A67" s="46"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="43"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="46"/>
+      <c r="H67" s="36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="3" customFormat="1">
+      <c r="A68" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="43"/>
-      <c r="H67" s="36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="7" t="s">
+      <c r="F68" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G68" s="45" t="s">
+      <c r="G68" s="50" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="42"/>
+    <row r="69" spans="1:8" s="3" customFormat="1" outlineLevel="1">
+      <c r="A69" s="45"/>
       <c r="B69" s="12"/>
-      <c r="C69" s="42"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="13" t="s">
         <v>11</v>
       </c>
@@ -2741,59 +2698,59 @@
       <c r="F69" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="47"/>
+      <c r="G69" s="48"/>
       <c r="H69" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="43"/>
+    <row r="70" spans="1:8" s="3" customFormat="1" outlineLevel="1">
+      <c r="A70" s="46"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="43"/>
+      <c r="C70" s="46"/>
       <c r="D70" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="49"/>
+      <c r="H70" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="3" customFormat="1">
+      <c r="A71" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="46"/>
-      <c r="H70" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="7" t="s">
+      <c r="F71" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F71" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G71" s="45" t="s">
+      <c r="G71" s="50" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="42"/>
+    <row r="72" spans="1:8" s="3" customFormat="1" outlineLevel="1">
+      <c r="A72" s="45"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="42"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="13" t="s">
         <v>11</v>
       </c>
@@ -2803,30 +2760,30 @@
       <c r="F72" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="47"/>
+      <c r="G72" s="48"/>
       <c r="H72" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="43"/>
+    <row r="73" spans="1:8" s="3" customFormat="1" outlineLevel="1">
+      <c r="A73" s="46"/>
       <c r="B73" s="12"/>
-      <c r="C73" s="43"/>
+      <c r="C73" s="46"/>
       <c r="D73" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="46"/>
+      <c r="G73" s="49"/>
       <c r="H73" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8">
       <c r="A74" s="17" t="s">
         <v>120</v>
       </c>
@@ -2852,56 +2809,56 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A75" s="45" t="s">
+    <row r="75" spans="1:8">
+      <c r="A75" s="50" t="s">
         <v>128</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="44" t="s">
         <v>122</v>
       </c>
       <c r="D75" s="29" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F75" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="F75" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="G75" s="44" t="s">
+      <c r="G75" s="47" t="s">
         <v>126</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="47"/>
+    <row r="76" spans="1:8" outlineLevel="1">
+      <c r="A76" s="48"/>
       <c r="B76" s="22"/>
-      <c r="C76" s="43"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="28" t="s">
         <v>130</v>
       </c>
       <c r="E76" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="F76" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G76" s="44"/>
+      <c r="G76" s="47"/>
       <c r="H76" s="26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8">
       <c r="A77" s="17" t="s">
         <v>131</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>122</v>
@@ -2922,115 +2879,111 @@
         <v>133</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A78" s="45" t="s">
+    <row r="78" spans="1:8">
+      <c r="A78" s="50" t="s">
         <v>134</v>
       </c>
       <c r="B78" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G78" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" outlineLevel="1">
+      <c r="A79" s="49"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C78" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="G78" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="46"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="E79" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="G79" s="44"/>
+        <v>177</v>
+      </c>
+      <c r="G79" s="47"/>
       <c r="H79" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="44" t="s">
-        <v>163</v>
+    <row r="80" spans="1:8" outlineLevel="1">
+      <c r="A80" s="47" t="s">
+        <v>162</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D80" s="29" t="s">
         <v>11</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="G80" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G80" s="50" t="s">
         <v>12</v>
       </c>
       <c r="H80" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A81" s="44"/>
+    <row r="81" spans="1:8">
+      <c r="A81" s="47"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
       <c r="D81" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E81" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F81" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="F81" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="G81" s="46"/>
+      <c r="G81" s="49"/>
       <c r="H81" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="G19:G24"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="G25:G32"/>
-    <mergeCell ref="G33:G40"/>
-    <mergeCell ref="G41:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="G52:G58"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="G65:G67"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A41:A48"/>
     <mergeCell ref="A49:A51"/>
@@ -3046,21 +2999,25 @@
     <mergeCell ref="A52:A58"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A62:A64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="G25:G32"/>
+    <mergeCell ref="G33:G40"/>
+    <mergeCell ref="G41:G48"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="G52:G58"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3069,14 +3026,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3085,12 +3042,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3099,12 +3056,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
